--- a/画面遷移図.xlsx
+++ b/画面遷移図.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="表紙 " sheetId="3" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="43">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -479,6 +479,16 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>画面遷移図追加</t>
+    <rPh sb="0" eb="5">
+      <t>ガメンセンイズ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -740,7 +750,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -845,6 +855,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -888,7 +916,7 @@
         <xdr:cNvPr id="12" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACBF0795-3B39-4171-86F6-1655FCB81456}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACBF0795-3B39-4171-86F6-1655FCB81456}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -909,7 +937,7 @@
           <xdr:cNvPr id="13" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80C837C4-6A1A-4D69-B31D-74ABEF982BF2}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80C837C4-6A1A-4D69-B31D-74ABEF982BF2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -962,7 +990,7 @@
           <xdr:cNvPr id="14" name="Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DBF9A715-8D7E-4CB3-8300-C553D088B5DC}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBF9A715-8D7E-4CB3-8300-C553D088B5DC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1043,7 +1071,7 @@
         <xdr:cNvPr id="2" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1155,7 +1183,7 @@
         <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1215,7 +1243,7 @@
         <xdr:cNvPr id="4" name="フローチャート: 判断 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C80106D4-8B27-4DF0-978E-E316ADC24C42}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80106D4-8B27-4DF0-978E-E316ADC24C42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1333,7 +1361,7 @@
         <xdr:cNvPr id="5" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1435,7 +1463,7 @@
         <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1537,7 +1565,7 @@
         <xdr:cNvPr id="8" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1678,7 +1706,7 @@
         <xdr:cNvPr id="9" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1852,7 +1880,7 @@
         <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1907,7 +1935,7 @@
         <xdr:cNvPr id="2" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2019,7 +2047,7 @@
         <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2079,7 +2107,7 @@
         <xdr:cNvPr id="4" name="フローチャート: 判断 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C80106D4-8B27-4DF0-978E-E316ADC24C42}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80106D4-8B27-4DF0-978E-E316ADC24C42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2197,7 +2225,7 @@
         <xdr:cNvPr id="5" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2299,7 +2327,7 @@
         <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2401,7 +2429,7 @@
         <xdr:cNvPr id="8" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2540,7 +2568,7 @@
         <xdr:cNvPr id="9" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2714,7 +2742,7 @@
         <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2764,7 +2792,7 @@
         <xdr:cNvPr id="11" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2922,7 +2950,7 @@
         <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2976,7 +3004,7 @@
         <xdr:cNvPr id="2" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9E47DCC-11D4-4D1F-9C65-0E47263EFDD1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9E47DCC-11D4-4D1F-9C65-0E47263EFDD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3078,7 +3106,7 @@
         <xdr:cNvPr id="5" name="フローチャート: 判断 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C80106D4-8B27-4DF0-978E-E316ADC24C42}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80106D4-8B27-4DF0-978E-E316ADC24C42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3186,7 +3214,7 @@
         <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{902C455E-CB63-4AB0-BB46-6EC2D293B601}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{902C455E-CB63-4AB0-BB46-6EC2D293B601}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3246,7 +3274,7 @@
         <xdr:cNvPr id="7" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3358,7 +3386,7 @@
         <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3417,7 +3445,7 @@
         <xdr:cNvPr id="10" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3648,7 +3676,7 @@
         <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{902C455E-CB63-4AB0-BB46-6EC2D293B601}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{902C455E-CB63-4AB0-BB46-6EC2D293B601}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3698,7 +3726,7 @@
         <xdr:cNvPr id="28" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3806,7 +3834,7 @@
         <xdr:cNvPr id="29" name="直線矢印コネクタ 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3861,7 +3889,7 @@
         <xdr:cNvPr id="2" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9E47DCC-11D4-4D1F-9C65-0E47263EFDD1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9E47DCC-11D4-4D1F-9C65-0E47263EFDD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3956,7 +3984,7 @@
         <xdr:cNvPr id="18" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4068,7 +4096,7 @@
         <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4128,7 +4156,7 @@
         <xdr:cNvPr id="28" name="フローチャート: 判断 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C80106D4-8B27-4DF0-978E-E316ADC24C42}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80106D4-8B27-4DF0-978E-E316ADC24C42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4256,7 +4284,7 @@
         <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{902C455E-CB63-4AB0-BB46-6EC2D293B601}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{902C455E-CB63-4AB0-BB46-6EC2D293B601}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4314,7 +4342,7 @@
         <xdr:cNvPr id="45" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4416,7 +4444,7 @@
         <xdr:cNvPr id="46" name="直線矢印コネクタ 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4596,7 +4624,7 @@
         <xdr:cNvPr id="101" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4857,7 +4885,7 @@
         <xdr:cNvPr id="123" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5043,7 +5071,7 @@
         <xdr:cNvPr id="2" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9E47DCC-11D4-4D1F-9C65-0E47263EFDD1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9E47DCC-11D4-4D1F-9C65-0E47263EFDD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5138,7 +5166,7 @@
         <xdr:cNvPr id="3" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5250,7 +5278,7 @@
         <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5310,7 +5338,7 @@
         <xdr:cNvPr id="5" name="フローチャート: 判断 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C80106D4-8B27-4DF0-978E-E316ADC24C42}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80106D4-8B27-4DF0-978E-E316ADC24C42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5418,7 +5446,7 @@
         <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{902C455E-CB63-4AB0-BB46-6EC2D293B601}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{902C455E-CB63-4AB0-BB46-6EC2D293B601}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5476,7 +5504,7 @@
         <xdr:cNvPr id="7" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5578,7 +5606,7 @@
         <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5680,7 +5708,7 @@
         <xdr:cNvPr id="36" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5866,7 +5894,7 @@
         <xdr:cNvPr id="3" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5978,7 +6006,7 @@
         <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6038,7 +6066,7 @@
         <xdr:cNvPr id="5" name="フローチャート: 判断 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C80106D4-8B27-4DF0-978E-E316ADC24C42}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80106D4-8B27-4DF0-978E-E316ADC24C42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6156,7 +6184,7 @@
         <xdr:cNvPr id="7" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6258,7 +6286,7 @@
         <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6360,7 +6388,7 @@
         <xdr:cNvPr id="17" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6501,7 +6529,7 @@
         <xdr:cNvPr id="23" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6675,7 +6703,7 @@
         <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6730,7 +6758,7 @@
         <xdr:cNvPr id="2" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6842,7 +6870,7 @@
         <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6902,7 +6930,7 @@
         <xdr:cNvPr id="4" name="フローチャート: 判断 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C80106D4-8B27-4DF0-978E-E316ADC24C42}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80106D4-8B27-4DF0-978E-E316ADC24C42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7020,7 +7048,7 @@
         <xdr:cNvPr id="5" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7122,7 +7150,7 @@
         <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7224,7 +7252,7 @@
         <xdr:cNvPr id="8" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7363,7 +7391,7 @@
         <xdr:cNvPr id="9" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7537,7 +7565,7 @@
         <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7587,7 +7615,7 @@
         <xdr:cNvPr id="11" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7745,7 +7773,7 @@
         <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7798,7 +7826,7 @@
         <xdr:cNvPr id="2" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9E47DCC-11D4-4D1F-9C65-0E47263EFDD1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9E47DCC-11D4-4D1F-9C65-0E47263EFDD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7900,7 +7928,7 @@
         <xdr:cNvPr id="3" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8012,7 +8040,7 @@
         <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8070,7 +8098,7 @@
         <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{902C455E-CB63-4AB0-BB46-6EC2D293B601}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{902C455E-CB63-4AB0-BB46-6EC2D293B601}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8128,7 +8156,7 @@
         <xdr:cNvPr id="7" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8235,7 +8263,7 @@
         <xdr:cNvPr id="2" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8347,7 +8375,7 @@
         <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8407,7 +8435,7 @@
         <xdr:cNvPr id="4" name="フローチャート: 判断 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C80106D4-8B27-4DF0-978E-E316ADC24C42}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80106D4-8B27-4DF0-978E-E316ADC24C42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8525,7 +8553,7 @@
         <xdr:cNvPr id="5" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8627,7 +8655,7 @@
         <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8729,7 +8757,7 @@
         <xdr:cNvPr id="8" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8870,7 +8898,7 @@
         <xdr:cNvPr id="9" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9044,7 +9072,7 @@
         <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9099,7 +9127,7 @@
         <xdr:cNvPr id="2" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9211,7 +9239,7 @@
         <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9271,7 +9299,7 @@
         <xdr:cNvPr id="4" name="フローチャート: 判断 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C80106D4-8B27-4DF0-978E-E316ADC24C42}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80106D4-8B27-4DF0-978E-E316ADC24C42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9389,7 +9417,7 @@
         <xdr:cNvPr id="5" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9531,7 +9559,7 @@
         <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9633,7 +9661,7 @@
         <xdr:cNvPr id="8" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9772,7 +9800,7 @@
         <xdr:cNvPr id="9" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9946,7 +9974,7 @@
         <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9996,7 +10024,7 @@
         <xdr:cNvPr id="11" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10154,7 +10182,7 @@
         <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10207,7 +10235,7 @@
         <xdr:cNvPr id="2" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9E47DCC-11D4-4D1F-9C65-0E47263EFDD1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9E47DCC-11D4-4D1F-9C65-0E47263EFDD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10309,7 +10337,7 @@
         <xdr:cNvPr id="3" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10421,7 +10449,7 @@
         <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10481,7 +10509,7 @@
         <xdr:cNvPr id="5" name="フローチャート: 判断 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C80106D4-8B27-4DF0-978E-E316ADC24C42}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80106D4-8B27-4DF0-978E-E316ADC24C42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10589,7 +10617,7 @@
         <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{902C455E-CB63-4AB0-BB46-6EC2D293B601}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{902C455E-CB63-4AB0-BB46-6EC2D293B601}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10647,7 +10675,7 @@
         <xdr:cNvPr id="7" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10749,7 +10777,7 @@
         <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10851,7 +10879,7 @@
         <xdr:cNvPr id="10" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11316,8 +11344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FT43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AD27" sqref="AD27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.95" customHeight="1"/>
@@ -12359,31 +12387,37 @@
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
-      <c r="AB27" s="10"/>
+      <c r="F27" s="64">
+        <v>45410</v>
+      </c>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="66"/>
+      <c r="R27" s="66"/>
+      <c r="S27" s="66"/>
+      <c r="T27" s="66"/>
+      <c r="U27" s="66"/>
+      <c r="V27" s="66"/>
+      <c r="W27" s="66"/>
+      <c r="X27" s="66"/>
+      <c r="Y27" s="66"/>
+      <c r="Z27" s="66"/>
+      <c r="AA27" s="66"/>
+      <c r="AB27" s="67"/>
       <c r="AC27" s="25"/>
-      <c r="AD27" s="10"/>
+      <c r="AD27" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="AE27" s="21"/>
       <c r="AF27" s="23"/>
     </row>
@@ -12932,7 +12966,9 @@
       <c r="AF43" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
     <mergeCell ref="B9:E10"/>
     <mergeCell ref="F8:Q8"/>
     <mergeCell ref="L17:U19"/>
@@ -17175,7 +17211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FQ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="Z3" sqref="Z3:AA3"/>
     </sheetView>
   </sheetViews>

--- a/画面遷移図.xlsx
+++ b/画面遷移図.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" firstSheet="9" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="表紙 " sheetId="3" r:id="rId1"/>
@@ -814,6 +814,24 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -854,24 +872,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -916,7 +916,7 @@
         <xdr:cNvPr id="12" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACBF0795-3B39-4171-86F6-1655FCB81456}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACBF0795-3B39-4171-86F6-1655FCB81456}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -937,7 +937,7 @@
           <xdr:cNvPr id="13" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80C837C4-6A1A-4D69-B31D-74ABEF982BF2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80C837C4-6A1A-4D69-B31D-74ABEF982BF2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -990,7 +990,7 @@
           <xdr:cNvPr id="14" name="Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBF9A715-8D7E-4CB3-8300-C553D088B5DC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DBF9A715-8D7E-4CB3-8300-C553D088B5DC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1071,7 +1071,7 @@
         <xdr:cNvPr id="2" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1183,7 +1183,7 @@
         <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1243,7 +1243,7 @@
         <xdr:cNvPr id="4" name="フローチャート: 判断 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80106D4-8B27-4DF0-978E-E316ADC24C42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C80106D4-8B27-4DF0-978E-E316ADC24C42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1361,7 +1361,7 @@
         <xdr:cNvPr id="5" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1463,7 +1463,7 @@
         <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1565,7 +1565,7 @@
         <xdr:cNvPr id="8" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1706,7 +1706,7 @@
         <xdr:cNvPr id="9" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1775,7 +1775,7 @@
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>アカウントこうしん画面</a:t>
+            <a:t>アカウント更新画面</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
             <a:ln>
@@ -1880,7 +1880,7 @@
         <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1935,7 +1935,7 @@
         <xdr:cNvPr id="2" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2047,7 +2047,7 @@
         <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2107,7 +2107,7 @@
         <xdr:cNvPr id="4" name="フローチャート: 判断 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80106D4-8B27-4DF0-978E-E316ADC24C42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C80106D4-8B27-4DF0-978E-E316ADC24C42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2225,7 +2225,7 @@
         <xdr:cNvPr id="5" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2327,7 +2327,7 @@
         <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2429,7 +2429,7 @@
         <xdr:cNvPr id="8" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2568,7 +2568,7 @@
         <xdr:cNvPr id="9" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2742,7 +2742,7 @@
         <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2792,7 +2792,7 @@
         <xdr:cNvPr id="11" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2950,7 +2950,7 @@
         <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3004,7 +3004,7 @@
         <xdr:cNvPr id="2" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9E47DCC-11D4-4D1F-9C65-0E47263EFDD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9E47DCC-11D4-4D1F-9C65-0E47263EFDD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3106,7 +3106,7 @@
         <xdr:cNvPr id="5" name="フローチャート: 判断 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80106D4-8B27-4DF0-978E-E316ADC24C42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C80106D4-8B27-4DF0-978E-E316ADC24C42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3214,7 +3214,7 @@
         <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{902C455E-CB63-4AB0-BB46-6EC2D293B601}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{902C455E-CB63-4AB0-BB46-6EC2D293B601}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3274,7 +3274,7 @@
         <xdr:cNvPr id="7" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3386,7 +3386,7 @@
         <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3445,7 +3445,7 @@
         <xdr:cNvPr id="10" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3676,7 +3676,7 @@
         <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{902C455E-CB63-4AB0-BB46-6EC2D293B601}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{902C455E-CB63-4AB0-BB46-6EC2D293B601}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3726,7 +3726,7 @@
         <xdr:cNvPr id="28" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3834,7 +3834,7 @@
         <xdr:cNvPr id="29" name="直線矢印コネクタ 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3889,7 +3889,7 @@
         <xdr:cNvPr id="2" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9E47DCC-11D4-4D1F-9C65-0E47263EFDD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9E47DCC-11D4-4D1F-9C65-0E47263EFDD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3984,7 +3984,7 @@
         <xdr:cNvPr id="18" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4096,7 +4096,7 @@
         <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4156,7 +4156,7 @@
         <xdr:cNvPr id="28" name="フローチャート: 判断 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80106D4-8B27-4DF0-978E-E316ADC24C42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C80106D4-8B27-4DF0-978E-E316ADC24C42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4284,7 +4284,7 @@
         <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{902C455E-CB63-4AB0-BB46-6EC2D293B601}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{902C455E-CB63-4AB0-BB46-6EC2D293B601}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4342,7 +4342,7 @@
         <xdr:cNvPr id="45" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4444,7 +4444,7 @@
         <xdr:cNvPr id="46" name="直線矢印コネクタ 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4624,7 +4624,7 @@
         <xdr:cNvPr id="101" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4885,7 +4885,7 @@
         <xdr:cNvPr id="123" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5071,7 +5071,7 @@
         <xdr:cNvPr id="2" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9E47DCC-11D4-4D1F-9C65-0E47263EFDD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9E47DCC-11D4-4D1F-9C65-0E47263EFDD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5166,7 +5166,7 @@
         <xdr:cNvPr id="3" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5278,7 +5278,7 @@
         <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5338,7 +5338,7 @@
         <xdr:cNvPr id="5" name="フローチャート: 判断 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80106D4-8B27-4DF0-978E-E316ADC24C42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C80106D4-8B27-4DF0-978E-E316ADC24C42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5446,7 +5446,7 @@
         <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{902C455E-CB63-4AB0-BB46-6EC2D293B601}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{902C455E-CB63-4AB0-BB46-6EC2D293B601}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5504,7 +5504,7 @@
         <xdr:cNvPr id="7" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5606,7 +5606,7 @@
         <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5708,7 +5708,7 @@
         <xdr:cNvPr id="36" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5894,7 +5894,7 @@
         <xdr:cNvPr id="3" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6006,7 +6006,7 @@
         <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6066,7 +6066,7 @@
         <xdr:cNvPr id="5" name="フローチャート: 判断 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80106D4-8B27-4DF0-978E-E316ADC24C42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C80106D4-8B27-4DF0-978E-E316ADC24C42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6184,7 +6184,7 @@
         <xdr:cNvPr id="7" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6286,7 +6286,7 @@
         <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6388,7 +6388,7 @@
         <xdr:cNvPr id="17" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6529,7 +6529,7 @@
         <xdr:cNvPr id="23" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6703,7 +6703,7 @@
         <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6758,7 +6758,7 @@
         <xdr:cNvPr id="2" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6870,7 +6870,7 @@
         <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6930,7 +6930,7 @@
         <xdr:cNvPr id="4" name="フローチャート: 判断 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80106D4-8B27-4DF0-978E-E316ADC24C42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C80106D4-8B27-4DF0-978E-E316ADC24C42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7048,7 +7048,7 @@
         <xdr:cNvPr id="5" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7150,7 +7150,7 @@
         <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7252,7 +7252,7 @@
         <xdr:cNvPr id="8" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7391,7 +7391,7 @@
         <xdr:cNvPr id="9" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7565,7 +7565,7 @@
         <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7615,7 +7615,7 @@
         <xdr:cNvPr id="11" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7773,7 +7773,7 @@
         <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7826,7 +7826,7 @@
         <xdr:cNvPr id="2" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9E47DCC-11D4-4D1F-9C65-0E47263EFDD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9E47DCC-11D4-4D1F-9C65-0E47263EFDD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7928,7 +7928,7 @@
         <xdr:cNvPr id="3" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8040,7 +8040,7 @@
         <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8098,7 +8098,7 @@
         <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{902C455E-CB63-4AB0-BB46-6EC2D293B601}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{902C455E-CB63-4AB0-BB46-6EC2D293B601}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8156,7 +8156,7 @@
         <xdr:cNvPr id="7" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8263,7 +8263,7 @@
         <xdr:cNvPr id="2" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8375,7 +8375,7 @@
         <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8435,7 +8435,7 @@
         <xdr:cNvPr id="4" name="フローチャート: 判断 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80106D4-8B27-4DF0-978E-E316ADC24C42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C80106D4-8B27-4DF0-978E-E316ADC24C42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8553,7 +8553,7 @@
         <xdr:cNvPr id="5" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8655,7 +8655,7 @@
         <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8757,7 +8757,7 @@
         <xdr:cNvPr id="8" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8898,7 +8898,7 @@
         <xdr:cNvPr id="9" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9072,7 +9072,7 @@
         <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9127,7 +9127,7 @@
         <xdr:cNvPr id="2" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9239,7 +9239,7 @@
         <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9299,7 +9299,7 @@
         <xdr:cNvPr id="4" name="フローチャート: 判断 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80106D4-8B27-4DF0-978E-E316ADC24C42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C80106D4-8B27-4DF0-978E-E316ADC24C42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9417,7 +9417,7 @@
         <xdr:cNvPr id="5" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9559,7 +9559,7 @@
         <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9661,7 +9661,7 @@
         <xdr:cNvPr id="8" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9800,7 +9800,7 @@
         <xdr:cNvPr id="9" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9974,7 +9974,7 @@
         <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10024,7 +10024,7 @@
         <xdr:cNvPr id="11" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10182,7 +10182,7 @@
         <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10235,7 +10235,7 @@
         <xdr:cNvPr id="2" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9E47DCC-11D4-4D1F-9C65-0E47263EFDD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9E47DCC-11D4-4D1F-9C65-0E47263EFDD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10337,7 +10337,7 @@
         <xdr:cNvPr id="3" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10449,7 +10449,7 @@
         <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4941F8DB-6313-41DB-B7A9-A2BDF66B3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10509,7 +10509,7 @@
         <xdr:cNvPr id="5" name="フローチャート: 判断 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80106D4-8B27-4DF0-978E-E316ADC24C42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C80106D4-8B27-4DF0-978E-E316ADC24C42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10617,7 +10617,7 @@
         <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{902C455E-CB63-4AB0-BB46-6EC2D293B601}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{902C455E-CB63-4AB0-BB46-6EC2D293B601}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10675,7 +10675,7 @@
         <xdr:cNvPr id="7" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3523B056-D748-4421-9847-102D67FFC710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10777,7 +10777,7 @@
         <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7050A3F3-1BD8-47C2-B9DF-4C56152DA1D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10879,7 +10879,7 @@
         <xdr:cNvPr id="10" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{226C6788-49CB-482A-8416-9D3B3D94BB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11344,7 +11344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FT43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
@@ -11742,20 +11742,20 @@
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
       <c r="E8" s="36"/>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="45"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="51"/>
       <c r="R8" s="21"/>
       <c r="S8" s="21"/>
       <c r="T8" s="21"/>
@@ -11774,26 +11774,26 @@
     </row>
     <row r="9" spans="1:176" ht="12.95" customHeight="1">
       <c r="A9" s="20"/>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="51" t="s">
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="53"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="59"/>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
       <c r="T9" s="21"/>
@@ -11812,22 +11812,22 @@
     </row>
     <row r="10" spans="1:176" ht="12.95" customHeight="1">
       <c r="A10" s="20"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="56"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="62"/>
       <c r="R10" s="21"/>
       <c r="S10" s="21"/>
       <c r="T10" s="21"/>
@@ -12042,18 +12042,18 @@
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
-      <c r="L17" s="46" t="s">
+      <c r="L17" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
       <c r="V17" s="21"/>
       <c r="W17" s="21"/>
       <c r="AA17" s="21"/>
@@ -12075,16 +12075,16 @@
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="47"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="53"/>
+      <c r="U18" s="53"/>
       <c r="V18" s="21"/>
       <c r="W18" s="21"/>
       <c r="AA18" s="21"/>
@@ -12106,16 +12106,16 @@
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="53"/>
+      <c r="U19" s="53"/>
       <c r="V19" s="21"/>
       <c r="W19" s="21"/>
       <c r="X19" s="21"/>
@@ -12347,12 +12347,12 @@
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="48">
+      <c r="F26" s="54">
         <v>45408</v>
       </c>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="50"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="56"/>
       <c r="J26" s="8" t="s">
         <v>8</v>
       </c>
@@ -12387,33 +12387,33 @@
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
-      <c r="F27" s="64">
+      <c r="F27" s="37">
         <v>45410</v>
       </c>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="65" t="s">
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="66"/>
-      <c r="R27" s="66"/>
-      <c r="S27" s="66"/>
-      <c r="T27" s="66"/>
-      <c r="U27" s="66"/>
-      <c r="V27" s="66"/>
-      <c r="W27" s="66"/>
-      <c r="X27" s="66"/>
-      <c r="Y27" s="66"/>
-      <c r="Z27" s="66"/>
-      <c r="AA27" s="66"/>
-      <c r="AB27" s="67"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="41"/>
+      <c r="X27" s="41"/>
+      <c r="Y27" s="41"/>
+      <c r="Z27" s="41"/>
+      <c r="AA27" s="41"/>
+      <c r="AB27" s="42"/>
       <c r="AC27" s="25"/>
       <c r="AD27" s="10" t="s">
         <v>17</v>
@@ -12991,7 +12991,7 @@
   <dimension ref="A1:FQ42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="O10" sqref="N10:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -13005,37 +13005,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="59"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="65"/>
     </row>
     <row r="2" spans="1:173" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -13069,10 +13069,10 @@
         <v>1</v>
       </c>
       <c r="AA2" s="3"/>
-      <c r="AB2" s="60" t="s">
+      <c r="AB2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="61"/>
+      <c r="AC2" s="67"/>
     </row>
     <row r="3" spans="1:173" ht="12.75" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -13102,12 +13102,12 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="60" t="s">
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="61"/>
+      <c r="AC3" s="67"/>
     </row>
     <row r="4" spans="1:173" s="7" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="31"/>
@@ -14394,7 +14394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FQ42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="T34" sqref="S34:T34"/>
     </sheetView>
   </sheetViews>
@@ -14409,37 +14409,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="59"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="65"/>
     </row>
     <row r="2" spans="1:173" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -14473,10 +14473,10 @@
         <v>1</v>
       </c>
       <c r="AA2" s="3"/>
-      <c r="AB2" s="60" t="s">
+      <c r="AB2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="61"/>
+      <c r="AC2" s="67"/>
     </row>
     <row r="3" spans="1:173" ht="12.75" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -14506,12 +14506,12 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="60" t="s">
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="61"/>
+      <c r="AC3" s="67"/>
     </row>
     <row r="4" spans="1:173" s="7" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="31"/>
@@ -15802,7 +15802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FQ42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
@@ -15817,37 +15817,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="59"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="65"/>
     </row>
     <row r="2" spans="1:173" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -15881,10 +15881,10 @@
         <v>1</v>
       </c>
       <c r="AA2" s="3"/>
-      <c r="AB2" s="60" t="s">
+      <c r="AB2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="61"/>
+      <c r="AC2" s="67"/>
     </row>
     <row r="3" spans="1:173" ht="12.75" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -15914,12 +15914,12 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="60" t="s">
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="61"/>
+      <c r="AC3" s="67"/>
     </row>
     <row r="4" spans="1:173" s="7" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="31"/>
@@ -17226,37 +17226,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="59"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="65"/>
     </row>
     <row r="2" spans="1:173" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -17290,10 +17290,10 @@
         <v>1</v>
       </c>
       <c r="AA2" s="3"/>
-      <c r="AB2" s="60" t="s">
+      <c r="AB2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="61"/>
+      <c r="AC2" s="67"/>
     </row>
     <row r="3" spans="1:173" ht="12.75" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -17323,12 +17323,12 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="60" t="s">
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="61"/>
+      <c r="AC3" s="67"/>
     </row>
     <row r="4" spans="1:173" s="7" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="31"/>
@@ -18619,7 +18619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FQ42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
@@ -18634,37 +18634,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="59"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="65"/>
     </row>
     <row r="2" spans="1:173" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -18698,10 +18698,10 @@
         <v>1</v>
       </c>
       <c r="AA2" s="3"/>
-      <c r="AB2" s="60" t="s">
+      <c r="AB2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="61"/>
+      <c r="AC2" s="67"/>
     </row>
     <row r="3" spans="1:173" ht="12.75" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -18731,12 +18731,12 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="60" t="s">
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="61"/>
+      <c r="AC3" s="67"/>
     </row>
     <row r="4" spans="1:173" s="7" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="31"/>
@@ -20029,7 +20029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FQ42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
@@ -20044,37 +20044,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="59"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="65"/>
     </row>
     <row r="2" spans="1:173" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -20108,10 +20108,10 @@
         <v>1</v>
       </c>
       <c r="AA2" s="3"/>
-      <c r="AB2" s="60" t="s">
+      <c r="AB2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="61"/>
+      <c r="AC2" s="67"/>
     </row>
     <row r="3" spans="1:173" ht="12.75" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -20141,12 +20141,12 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="60" t="s">
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="61"/>
+      <c r="AC3" s="67"/>
     </row>
     <row r="4" spans="1:173" s="7" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="31"/>
@@ -21433,7 +21433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FQ42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
@@ -21448,37 +21448,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="59"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="65"/>
     </row>
     <row r="2" spans="1:173" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -21512,10 +21512,10 @@
         <v>1</v>
       </c>
       <c r="AA2" s="3"/>
-      <c r="AB2" s="60" t="s">
+      <c r="AB2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="61"/>
+      <c r="AC2" s="67"/>
     </row>
     <row r="3" spans="1:173" ht="12.75" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -21545,12 +21545,12 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="60" t="s">
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="61"/>
+      <c r="AC3" s="67"/>
     </row>
     <row r="4" spans="1:173" s="7" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="31"/>
@@ -22841,7 +22841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FQ42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -22856,37 +22856,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="59"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="65"/>
     </row>
     <row r="2" spans="1:173" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -22920,10 +22920,10 @@
         <v>1</v>
       </c>
       <c r="AA2" s="3"/>
-      <c r="AB2" s="60" t="s">
+      <c r="AB2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="61"/>
+      <c r="AC2" s="67"/>
     </row>
     <row r="3" spans="1:173" ht="12.75" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -22953,12 +22953,12 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="60" t="s">
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="61"/>
+      <c r="AC3" s="67"/>
     </row>
     <row r="4" spans="1:173" s="7" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="31"/>
@@ -24243,7 +24243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FQ42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
@@ -24258,37 +24258,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="59"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="65"/>
     </row>
     <row r="2" spans="1:173" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -24322,10 +24322,10 @@
         <v>1</v>
       </c>
       <c r="AA2" s="3"/>
-      <c r="AB2" s="60" t="s">
+      <c r="AB2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="61"/>
+      <c r="AC2" s="67"/>
     </row>
     <row r="3" spans="1:173" ht="12.75" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -24355,12 +24355,12 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="60" t="s">
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="61"/>
+      <c r="AC3" s="67"/>
     </row>
     <row r="4" spans="1:173" s="7" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="31"/>
@@ -25647,7 +25647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FQ42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
@@ -25662,37 +25662,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="59"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="65"/>
     </row>
     <row r="2" spans="1:173" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -25726,10 +25726,10 @@
         <v>1</v>
       </c>
       <c r="AA2" s="3"/>
-      <c r="AB2" s="60" t="s">
+      <c r="AB2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="61"/>
+      <c r="AC2" s="67"/>
     </row>
     <row r="3" spans="1:173" ht="12.75" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -25759,12 +25759,12 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="60" t="s">
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="61"/>
+      <c r="AC3" s="67"/>
     </row>
     <row r="4" spans="1:173" s="7" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="31"/>
@@ -27055,7 +27055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FQ42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
@@ -27070,37 +27070,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="59"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="65"/>
     </row>
     <row r="2" spans="1:173" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -27134,10 +27134,10 @@
         <v>1</v>
       </c>
       <c r="AA2" s="3"/>
-      <c r="AB2" s="60" t="s">
+      <c r="AB2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="61"/>
+      <c r="AC2" s="67"/>
     </row>
     <row r="3" spans="1:173" ht="12.75" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -27167,12 +27167,12 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="60" t="s">
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="61"/>
+      <c r="AC3" s="67"/>
     </row>
     <row r="4" spans="1:173" s="7" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="31"/>
